--- a/src/main/resources/xlsx/pcs/re-3.xlsx
+++ b/src/main/resources/xlsx/pcs/re-3.xlsx
@@ -81,23 +81,6 @@
   </si>
   <si>
     <r>
-      <t xml:space="preserve">参加两委委员候选人推荐提名情况汇总表
-</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="14"/>
-        <color theme="1"/>
-        <rFont val="华文中宋"/>
-        <family val="3"/>
-        <charset val="134"/>
-      </rPr>
-      <t>（“一下一上”阶段，院系级党组织用）</t>
-    </r>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <r>
       <t>书记签名：</t>
     </r>
     <r>
@@ -142,6 +125,23 @@
   </si>
   <si>
     <t>实参会党员数</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">参加两委委员候选人推荐提名情况汇总表
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="14"/>
+        <color theme="1"/>
+        <rFont val="华文中宋"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>（“stage”阶段，院系级党组织用）</t>
+    </r>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -602,7 +602,7 @@
   <dimension ref="A1:F8"/>
   <sheetViews>
     <sheetView tabSelected="1" view="pageLayout" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="E10" sqref="E10"/>
+      <selection activeCell="D11" sqref="D11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -616,7 +616,7 @@
   <sheetData>
     <row r="1" spans="1:6" ht="63" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A1" s="13" t="s">
-        <v>4</v>
+        <v>10</v>
       </c>
       <c r="B1" s="13"/>
       <c r="C1" s="14"/>
@@ -626,7 +626,7 @@
     </row>
     <row r="2" spans="1:6" ht="27" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A2" s="10" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="B2" s="10"/>
       <c r="C2" s="10"/>
@@ -639,16 +639,16 @@
         <v>0</v>
       </c>
       <c r="B3" s="6" t="s">
+        <v>6</v>
+      </c>
+      <c r="C3" s="6" t="s">
         <v>7</v>
       </c>
-      <c r="C3" s="6" t="s">
+      <c r="D3" s="6" t="s">
         <v>8</v>
       </c>
-      <c r="D3" s="6" t="s">
+      <c r="E3" s="6" t="s">
         <v>9</v>
-      </c>
-      <c r="E3" s="6" t="s">
-        <v>10</v>
       </c>
       <c r="F3" s="6" t="s">
         <v>1</v>
@@ -674,7 +674,7 @@
     </row>
     <row r="7" spans="1:6" s="5" customFormat="1" ht="25.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A7" s="12" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="B7" s="12"/>
       <c r="C7" s="12"/>

--- a/src/main/resources/xlsx/pcs/re-3.xlsx
+++ b/src/main/resources/xlsx/pcs/re-3.xlsx
@@ -1,8 +1,8 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="18326"/>
-  <workbookPr filterPrivacy="1"/>
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
+  <workbookPr filterPrivacy="1" defaultThemeVersion="164011"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12645"/>
   </bookViews>
@@ -108,10 +108,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>分党委名称：name</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>党支部名称</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -125,6 +121,10 @@
   </si>
   <si>
     <t>实参会党员数</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>二级党组织名称：name</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
@@ -140,7 +140,7 @@
         <family val="3"/>
         <charset val="134"/>
       </rPr>
-      <t>（“stage”阶段，院系级党组织用）</t>
+      <t>（“stage”阶段，二级党组织用）</t>
     </r>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -602,7 +602,7 @@
   <dimension ref="A1:F8"/>
   <sheetViews>
     <sheetView tabSelected="1" view="pageLayout" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="D11" sqref="D11"/>
+      <selection activeCell="C9" sqref="C9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -626,7 +626,7 @@
     </row>
     <row r="2" spans="1:6" ht="27" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A2" s="10" t="s">
-        <v>5</v>
+        <v>9</v>
       </c>
       <c r="B2" s="10"/>
       <c r="C2" s="10"/>
@@ -639,16 +639,16 @@
         <v>0</v>
       </c>
       <c r="B3" s="6" t="s">
+        <v>5</v>
+      </c>
+      <c r="C3" s="6" t="s">
         <v>6</v>
       </c>
-      <c r="C3" s="6" t="s">
+      <c r="D3" s="6" t="s">
         <v>7</v>
       </c>
-      <c r="D3" s="6" t="s">
+      <c r="E3" s="6" t="s">
         <v>8</v>
-      </c>
-      <c r="E3" s="6" t="s">
-        <v>9</v>
       </c>
       <c r="F3" s="6" t="s">
         <v>1</v>
